--- a/PLANO DE TESTE.xlsx
+++ b/PLANO DE TESTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielCampelo\Documents\Estudos\UXUI\AtividadeUXUI_CaixaBranca_PT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD8C11-416B-412F-9111-8A838CC9D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFC29B-FC3D-4E3E-A7AA-17F27427D84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAIXA BRANCA (ESTÁTICO)" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>PROJETO / SISTEMA</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Recursos como Connection, Statement e ResultSet não são fechados.</t>
+  </si>
+  <si>
+    <t>Teste de Caixa Branca - Parte 1</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -353,12 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -670,7 +667,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,36 +677,38 @@
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20">
         <v>45972</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
